--- a/MedicalLink/Templates/BC_52_TGKhamBenhTrungBinh.xlsx
+++ b/MedicalLink/Templates/BC_52_TGKhamBenhTrungBinh.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$9</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>&amp;=[DATA].THOIGIANBAOCAO</t>
   </si>
@@ -99,6 +99,24 @@
   </si>
   <si>
     <t>&amp;=[DATA1].TG_KHAMLSXNCDHATDCN_IT</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SL_CHOKHAM</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SL_KHAMLS</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SL_KHAMLSXN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SL_KHAMLSXNCDHA</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SL_KHAMLSXNCDHATDCN</t>
   </si>
 </sst>
 </file>
@@ -185,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -234,12 +252,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -261,28 +290,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -290,7 +325,183 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -595,160 +806,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="3" customWidth="1"/>
-    <col min="2" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="12.140625" style="3" customWidth="1"/>
+    <col min="3" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="7"/>
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="B2" s="8"/>
+      <c r="H2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="5"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="5"/>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="15" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:10" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:15" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="F5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="G5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="I5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="J5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="L5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="M5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="O5" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="G6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="I6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="J6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="L6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="M6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="O6" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="14" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6:J6">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="A6:C6 E6:F6 H6:I6 K6:L6 N6:O6">
+    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="14" stopIfTrue="1">
+      <formula>#REF!=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+      <formula>#REF!=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>#REF!=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+      <formula>#REF!=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>#REF!=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>#REF!=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>#REF!=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>#REF!=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>#REF!=2</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>
